--- a/Electrical/MainBoard/bom/bom_digikey_PIC32_2.xlsx
+++ b/Electrical/MainBoard/bom/bom_digikey_PIC32_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satom\Desktop\Robot\Electrical\MainBoard\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9C0EC7-CB49-4884-8DB3-80BD96B9D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729BBB14-4D1E-4F3F-803F-AA17F37C0A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{8C1C06BF-AC5E-4C14-BE4D-7CA0470A3B8C}"/>
   </bookViews>
@@ -359,9 +359,6 @@
     <t>26-60-4040_MOL</t>
   </si>
   <si>
-    <t>708-3039-ND</t>
-  </si>
-  <si>
     <t>M1, M2</t>
   </si>
   <si>
@@ -608,12 +605,6 @@
     <t>OS102011MS2QN1</t>
   </si>
   <si>
-    <t>Bulgin</t>
-  </si>
-  <si>
-    <t>C1553PBNAW</t>
-  </si>
-  <si>
     <t>Phoenix Contact</t>
   </si>
   <si>
@@ -678,6 +669,15 @@
   </si>
   <si>
     <t>U11, U12, J24</t>
+  </si>
+  <si>
+    <t>EG5682-ND</t>
+  </si>
+  <si>
+    <t>RA83231100</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE472AD2-9AB7-4FBD-ACED-6AB892D95601}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1058,10 +1058,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
         <v>150</v>
-      </c>
-      <c r="E1" t="s">
-        <v>151</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1084,10 +1084,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1110,10 +1110,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1136,10 +1136,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -1162,10 +1162,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1188,10 +1188,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
         <v>157</v>
-      </c>
-      <c r="E6" t="s">
-        <v>158</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1214,10 +1214,10 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
         <v>159</v>
-      </c>
-      <c r="E7" t="s">
-        <v>160</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1240,10 +1240,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1266,10 +1266,10 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
         <v>162</v>
-      </c>
-      <c r="E9" t="s">
-        <v>163</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -1292,10 +1292,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1318,10 +1318,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -1344,10 +1344,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1370,10 +1370,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1396,10 +1396,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1422,10 +1422,10 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1448,10 +1448,10 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -1474,10 +1474,10 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
         <v>171</v>
-      </c>
-      <c r="E17" t="s">
-        <v>172</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -1500,10 +1500,10 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1526,10 +1526,10 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
         <v>174</v>
-      </c>
-      <c r="E19" t="s">
-        <v>175</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1552,7 +1552,7 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -1578,7 +1578,7 @@
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
         <v>65</v>
@@ -1604,7 +1604,7 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
         <v>69</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -1630,7 +1630,7 @@
         <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23">
         <v>22232041</v>
@@ -1650,22 +1650,22 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
         <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1682,7 +1682,7 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
         <v>78</v>
@@ -1708,10 +1708,10 @@
         <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1734,10 +1734,10 @@
         <v>87</v>
       </c>
       <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" t="s">
         <v>183</v>
-      </c>
-      <c r="E27" t="s">
-        <v>184</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1760,7 +1760,7 @@
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>4628</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
@@ -1786,7 +1786,7 @@
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29">
         <v>22232021</v>
@@ -1812,10 +1812,10 @@
         <v>98</v>
       </c>
       <c r="D30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" t="s">
         <v>186</v>
-      </c>
-      <c r="E30" t="s">
-        <v>187</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1838,10 +1838,10 @@
         <v>102</v>
       </c>
       <c r="D31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" t="s">
         <v>188</v>
-      </c>
-      <c r="E31" t="s">
-        <v>189</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1864,16 +1864,16 @@
         <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1881,16 +1881,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E33">
         <v>1890963</v>
@@ -1899,7 +1899,7 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1907,25 +1907,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
         <v>112</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>113</v>
       </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -1933,16 +1933,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
         <v>116</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35">
         <v>22232031</v>
@@ -1951,7 +1951,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -1959,25 +1959,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" t="s">
         <v>119</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
         <v>121</v>
-      </c>
-      <c r="D36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" t="s">
-        <v>122</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1985,16 +1985,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
         <v>123</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E37">
         <v>1017514</v>
@@ -2003,7 +2003,7 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -2011,25 +2011,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
         <v>127</v>
       </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" t="s">
         <v>193</v>
       </c>
-      <c r="E38" t="s">
-        <v>196</v>
-      </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -2037,25 +2037,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
         <v>129</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>130</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
         <v>131</v>
-      </c>
-      <c r="D39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" t="s">
-        <v>132</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2063,25 +2063,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
         <v>133</v>
-      </c>
-      <c r="D40" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>134</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -2089,25 +2089,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
         <v>135</v>
       </c>
-      <c r="B41" t="s">
-        <v>136</v>
-      </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -2115,25 +2115,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
         <v>137</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>138</v>
       </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2141,25 +2141,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
         <v>140</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>141</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
         <v>142</v>
-      </c>
-      <c r="D43" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" t="s">
-        <v>143</v>
       </c>
       <c r="H43">
         <v>1</v>
